--- a/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
+++ b/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Endpoint Connect" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from mCSD Endpoint Ty" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.8.0</t>
+    <t>3.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T09:44:57-05:00</t>
+    <t>2024-12-02T17:05:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,13 +72,19 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (https://www.ihe.net/ihe_domains/it_infrastructure/)</t>
+  </si>
+  <si>
+    <t>null (iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -112,22 +120,19 @@
     <t>ihe-xdr</t>
   </si>
   <si>
+    <t>ihe-pdq</t>
+  </si>
+  <si>
+    <t>ihe-pix</t>
+  </si>
+  <si>
+    <t>ihe-mhd</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/endpoint-connection-type</t>
-  </si>
-  <si>
-    <t>ihe-pdq</t>
-  </si>
-  <si>
-    <t>ihe-pix</t>
-  </si>
-  <si>
-    <t>ihe-mhd</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/mCSD/CodeSystem/MCSDEndpointTypes</t>
@@ -252,10 +257,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -326,82 +331,84 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -411,7 +418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,109 +430,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
+++ b/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.9.0</t>
+    <t>4.0.0-comment</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:05:26-06:00</t>
+    <t>2025-03-12T11:04:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
+++ b/ITI/mCSD/ValueSet-MCSDEndpointTypesCoreDocShareVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-comment</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:04:43-05:00</t>
+    <t>2025-05-21T13:41:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
